--- a/AutoFirmwareUpgrade/ClassLibrary1/TestDataFiles/CablingDataSet/2M4U.xlsx
+++ b/AutoFirmwareUpgrade/ClassLibrary1/TestDataFiles/CablingDataSet/2M4U.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44A155B-4A1C-456B-9815-A983ECCF0560}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0B40DB-2213-443C-9D21-5E1F193C1B81}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -623,8 +623,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
         <v>74</v>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W11" t="s">
         <v>24</v>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W12" t="s">
         <v>25</v>
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W13" t="s">
         <v>26</v>
@@ -1425,8 +1425,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
